--- a/Example_Implementations/Example_1.xlsx
+++ b/Example_Implementations/Example_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inspirewellness-my.sharepoint.com/personal/bharrell4_humana_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\repos\CMM\github\Example_Implementations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1632" documentId="8_{E8EFBC77-9AA3-4030-BCB2-C59285D49AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{154C35D1-E64B-423D-B42A-949834BABA73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5760D7B2-7602-418F-B0B2-AE9F2807C414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94D6FA02-3BD5-4F95-BA04-B61DC13561F1}"/>
+    <workbookView xWindow="45555" yWindow="930" windowWidth="31890" windowHeight="20505" xr2:uid="{94D6FA02-3BD5-4F95-BA04-B61DC13561F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="18" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Glossary" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EXAMPLE_COMPLETE!$A$1:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EXAMPLE_COMPLETE!$A$1:$J$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="248">
   <si>
     <t>Category</t>
   </si>
@@ -118,51 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Red Team is goal driven and reflects on their progress by holding retrospectives only after major operations; the Red Team has a general understanding of team gaps and informal plans to address them </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team holds regular retrospectives on an identified cadence </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>which are inclusive of activities beyond operations; the Red Team has a defined roadmap to address improvement and operational targets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Metrics are in place to track improvement </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and progress toward  roadmap objectives; improvement items are sometimes achieved, and work items are created based on findings and objectives</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Red Team regularly discusses opportunities and uniformly decides to stay the course or pivot; retrospectives consistently deliver process/operational improvements; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the Red Team roadmap is considered during organizational planning</t>
-    </r>
   </si>
   <si>
     <t>Knowledgebase</t>
@@ -297,33 +252,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Operations are socialized with the leadership directly above the Red Team; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Red Team approvals require individual, executive approval for operations</t>
-    </r>
-  </si>
-  <si>
     <t>The Red Team can conduct some operations, like Purple Teams, with standing executive leadership approval</t>
   </si>
   <si>
@@ -388,30 +316,6 @@
   </si>
   <si>
     <t>Resource Management</t>
-  </si>
-  <si>
-    <t>Licenses and accounts are only tracked upon reminder of expiration or renewal needs; ownership is dispersed across multiple people</t>
-  </si>
-  <si>
-    <t>One person tracks accounts, payment methods, or licenses; knowledge not available to the entire Red Team</t>
-  </si>
-  <si>
-    <r>
-      <t>Accounts and licenses are centrally tracked, understood, and reviewed as needed by the Red Team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; Red Team account passwords are secured</t>
-    </r>
-  </si>
-  <si>
-    <t>Accounts, licenses, and recurring expenses are reviewed quarterly for need or expiration</t>
   </si>
   <si>
     <t>Tracking methods provide alerts or other easily identifiable information to indicate actions needed in the next thirty days</t>
@@ -648,24 +552,6 @@
     </r>
   </si>
   <si>
-    <t>The Red Team receives timely reporting from Cyber Threat Intelligence related to current threats to the organization or industry</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Red Team and Cyber Threat Intelligence share information on a recurring, scheduled basis, such as assorted TTPs currently observed in the wild, and this information informs Red Team operations, techniques, or procedures;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the teams have scheduled interactions to share knowledge and build camaraderie</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The teams collaboratively create adversary emulation operation plans and objectives to accurately emulate selected threat actors; </t>
     </r>
@@ -702,28 +588,10 @@
     <t>Relationship with Governance, Risk, and Compliance (GRC)</t>
   </si>
   <si>
-    <t>Red Team findings are communicated to risk owners but don't align to organizational definitions</t>
-  </si>
-  <si>
-    <t>Red Team findings are tracked by remediation teams but only informally communicated with the risk management team</t>
-  </si>
-  <si>
-    <t>Red Team and GRC meet on a recurring basis to align definitions on impact and risk ratings</t>
-  </si>
-  <si>
-    <t>Red Team is a stakeholder in crafting the organization's risk definitions</t>
-  </si>
-  <si>
-    <t>GRC and Red Team routinely discuss organizational risks and use these discussions to drive operations</t>
-  </si>
-  <si>
     <t>Relationship with Human Resources (HR)</t>
   </si>
   <si>
     <t>The Red Team doesn't consistently engage HR on matters the team believes may have HR implications</t>
-  </si>
-  <si>
-    <t>HR partners are advised, and provides counsel, on operational rules of engagements during planning</t>
   </si>
   <si>
     <t>Operational situations that have HR implications requiring consultation are clearly identified and documented</t>
@@ -789,9 +657,6 @@
     <t>The Red Team has documented registers of software, services, and key personnel in the organization</t>
   </si>
   <si>
-    <t>SMEs from other teams validate a register of software and services in the environment</t>
-  </si>
-  <si>
     <t>The Red Team is included in meetings discussing major technology changes that affect the organization's security posture, such as changing EDR vendors or acquiring subsidiaries whose networks will be merged</t>
   </si>
   <si>
@@ -1072,32 +937,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The Red Team is recognized as industry contributors and features at security conferences </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and/or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has publicly shared a tool / a TTP / knowledge that is widely adopted</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The Red Team has a </t>
     </r>
     <r>
@@ -1109,21 +948,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>roadmap of current and future work in a distributed tool; leadership is responsible for accountability</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unscheduled interactions but with identified points of contact; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subsets of the teams converse and share knowledge (e.g., manager to manager or individual contributor to individual contributor)); there's a general understanding of deconfliction processes</t>
     </r>
   </si>
   <si>
@@ -1426,6 +1250,195 @@
   <si>
     <t>[+] To help with the discussion, consider finding a way to visually represent where each user voted. 
 One way to do this is to copy/paste a small circle object on top of the cell with the scorer's initial, which will automatically stack as you paste more. This is extra work for the person compiling it (and won't work well with large teams). In the example on the right, the first instance of a number is "have it", the second (if present) is "target", and the third (if present) is "stretch". It's a quick way to identify outliers, but is labor intensive. You could also pull in scores to the right of the table via functions if you have the screen real estate, but 3 columns times # team members adds up</t>
+  </si>
+  <si>
+    <t>Findings Management</t>
+  </si>
+  <si>
+    <t>Red Team responsible for tracking and closing all findings; no formal handoff process</t>
+  </si>
+  <si>
+    <t>Informal handoff to remediation teams; criticality does not align to organizational definitions</t>
+  </si>
+  <si>
+    <t>Documented handoff process to a defined risk management team (e.g., GRC) who tracks the findings to closure; Red Team provides advisory support; risk ratings align to industry best practices</t>
+  </si>
+  <si>
+    <t>The Red Team supports ad hoc retesting (where retesting is feasible) of remediated issues; automated dashboards allow the Red Team to track finding and remediation metrics; Red Team findings align to organizational risk definitions and GRC frameworks</t>
+  </si>
+  <si>
+    <t>The Red Team includes time for retesting (where retesting is feasible) as part of operation planning</t>
+  </si>
+  <si>
+    <t>The Red Team holds regular retrospectives on an identified cadence which are inclusive of activities beyond operations; the Red Team has a defined roadmap to address improvement and operational targets</t>
+  </si>
+  <si>
+    <t>Metrics are in place to track improvement and progress toward  roadmap objectives; improvement items are sometimes achieved, and work items are created based on findings and objectives</t>
+  </si>
+  <si>
+    <t>The Red Team regularly discusses opportunities and uniformly decides to stay the course or pivot; retrospectives consistently deliver process/operational improvements; the Red Team roadmap is considered during organizational planning</t>
+  </si>
+  <si>
+    <t>Resources like licenses, accounts, or domains are only tracked upon reminder of expiration or renewal needs; ownership is dispersed across multiple people</t>
+  </si>
+  <si>
+    <t>One person tracks resources; knowledge not available to the entire Red Team</t>
+  </si>
+  <si>
+    <t>Resources are centrally tracked, understood, and reviewed as needed by the Red Team; Red Team account passwords are secured</t>
+  </si>
+  <si>
+    <t>Recurring expenses or other resources are reviewed quarterly for need or expiration</t>
+  </si>
+  <si>
+    <t>The Red Team has defined, standing requirements with the CTI team related to emerging TTPs and current threats to the organization</t>
+  </si>
+  <si>
+    <t>Red Team and Cyber Threat Intelligence share information on a recurring, scheduled basi and this information informs Red Team operation, or procedures</t>
+  </si>
+  <si>
+    <t>The Red Team engages with system owners rather than GRC for findings discussions</t>
+  </si>
+  <si>
+    <t>The Red Team is a normal user of GRC processes rather than a preferred stakeholder</t>
+  </si>
+  <si>
+    <t>Red Team and GRC agree on shared risk taxonomy and rating criteria; GRC helps align findings to business impact</t>
+  </si>
+  <si>
+    <t>Red Team contributes to risk assessment methodologies and participates in risk committees</t>
+  </si>
+  <si>
+    <t>GRC and Red Team routinely discuss organizational risks and use these discussions to drive operations and organizational risk strategy</t>
+  </si>
+  <si>
+    <t>HR partners are advised and provide counsel on operational rules of engagements during planning</t>
+  </si>
+  <si>
+    <t>The Red Team receives notice of changes to in-scope assets or technology as changes are made</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Red Team is recognized as industry contributors and regularly features at security conferences </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and/or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has publicly shared a tool / a TTP / knowledge that is widely adopted</t>
+    </r>
+  </si>
+  <si>
+    <t>The Red Team operates as individuals and might take notes to facilitate improvement</t>
+  </si>
+  <si>
+    <t>The Red Team has a common, secured knowledgebase that is irregularly updated</t>
+  </si>
+  <si>
+    <t>The Red Team has a common, secured knowledge base that has undergone review and addresses most frequent needs</t>
+  </si>
+  <si>
+    <t>The Red Team has a common, secured knowledge base that undergoes regular review for utility and is routinely updated as part of any actions the Red Team takes</t>
+  </si>
+  <si>
+    <t>Operations leverage Cyber Threat Intelligence to derive objectives and are planned out at least one quarter; the Red Team has a defined intake process for suggestions and operational needs</t>
+  </si>
+  <si>
+    <t>Red Team operations are approved only by the first-line Red Team leader without executive leadership knowledge; OR higher level leadership (VP, CISO, etc. - organization dependent) is involved in approval for most Red Team operational aspects</t>
+  </si>
+  <si>
+    <t>Operations are socialized with the leadership directly above the Red Team; OR Red Team approvals require individual, executive approval for operations</t>
+  </si>
+  <si>
+    <t>The Red Team has modified, or can modify, tooling; C2 frameworks are current and capable of meeting operational needs</t>
+  </si>
+  <si>
+    <t>Custom or other tools accomplish the majority of operational needs; tools support automation or scaled execution of routine tasks</t>
+  </si>
+  <si>
+    <t>The Red Team leverages automated deployments for infrastructure; Red Team infrastructure security is self-assessed</t>
+  </si>
+  <si>
+    <t>The Red Team's infrastructure is easily customized; infrastructure configuration accounts for advanced OPSEC concerns and undergoes a third-party assessment (another team, whether internal or external to the organization); the Red Team uses operational variety in C2 channels</t>
+  </si>
+  <si>
+    <t>The organization maintains a separate test environment for collaborative operations that can be reconfigured to test different elements of the technology stack without affecting production</t>
+  </si>
+  <si>
+    <t>Red Team understands and leverages response teams' concerns when planning operations; strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
+  </si>
+  <si>
+    <t>Unscheduled interactions but with identified points of contact; subsets of the teams converse and share knowledge (e.g., manager to manager or individual contributor to individual contributor)</t>
+  </si>
+  <si>
+    <t>Engineering teams and Red Team meet on a recurring, scheduled basis to discuss pending changes to the environment; the teams have scheduled interactions to share knowledge and build camaraderie</t>
+  </si>
+  <si>
+    <t>Red Team operations impact engineering and architecture decisions during planning or before implementation is complete; strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
+  </si>
+  <si>
+    <t>The teams collaboratively create adversary emulation operation plans and objectives to accurately emulate selected threat actors; strong individual relationships facilitate frequent and unscheduled knowledge sharing and improvement</t>
+  </si>
+  <si>
+    <t>Segment and security leadership receive operational readouts, scheduled in advance; Red Team mission understood; leadership reactively engages the Red Team for support based on existing interactions</t>
+  </si>
+  <si>
+    <t>The Red Team has recurring, scheduled time with security and organizational leadership for topics outside of operation findings; leadership supports organization-wide efforts to enhance the value of testing; the Red Team seeks out and understands leadership's concerns to formulate operations</t>
+  </si>
+  <si>
+    <t>Operations are a mix of third party and internal efforts due to operational knowledge deficiencies</t>
+  </si>
+  <si>
+    <t>Red Team tactics applied without prioritization of Red Team OPSEC; internal capabilities limited to common TTPs</t>
+  </si>
+  <si>
+    <t>The Red Team has resiliency to achieve operational goals despite setbacks; the Red Team can vary tradecraft and technology to match operational or Cyber Threat Intelligence requirements; the Red Team has the staffing, support, and resources necessary to continuously respond to offensive testing needs</t>
+  </si>
+  <si>
+    <t>The Red Team employs basic scripting knowledge</t>
+  </si>
+  <si>
+    <t>The Red Team creates some custom solutions beyond basic scripts with no formal development processes, such as source control or code style guides</t>
+  </si>
+  <si>
+    <t>The Red Team creates custom solutions to address operation needs, such as stage 0s or implants; source code undergoes some automated checks for style or errors; code undergoes unit and functional testing</t>
+  </si>
+  <si>
+    <t>The Red Team develops advanced tooling, including custom C2 frameworks, to address operational needs; the team has an automated CI (and CD, if needed) pipeline; the team has dedicated developers</t>
+  </si>
+  <si>
+    <t>Time is provided to fill immediate knowledge gaps or maintain existing certifications; the team has  de facto team roles; seniority levels are generally understood</t>
+  </si>
+  <si>
+    <t>General Red Team needs are identified at most semi-annually; funding and time set aside for selected courses or research opportunities; team roles and seniority levels are well defined</t>
+  </si>
+  <si>
+    <t>Training and development plans are based on individual needs drawn from skills assessments (individual or team); team knowledge gaps addressed periodically</t>
+  </si>
+  <si>
+    <t>Team members are encouraged and supported in identifying individual research opportunities to improve themselves and the team; internal Red Team training available for new or junior Red Team members</t>
+  </si>
+  <si>
+    <t>The Red Team routinely shares operational knowledge at different levels of the organization; the Red Team contributes to operationally relevant open source projects</t>
+  </si>
+  <si>
+    <t>The Red Team pursues and obtains public speaking engagements; the Red Team has continuous industry engagement</t>
+  </si>
+  <si>
+    <t>The Red Team is recognized as industry contributors and regularly features at security conferences and/or has publicly shared a tool / a TTP / knowledge that is widely adopted</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1579,12 +1592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,7 +1678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1780,13 +1787,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1799,9 +1806,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,10 +1841,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1850,7 +1851,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="194">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2253,6 +2282,76 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2386,6 +2485,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2470,6 +2576,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -2477,6 +2597,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2498,6 +2625,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2582,6 +2723,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -2589,6 +2744,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2610,6 +2772,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -2673,6 +2863,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2694,6 +2891,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2708,6 +2912,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -2730,6 +2955,216 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3668,9 +4103,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3708,7 +4143,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3814,7 +4249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3956,7 +4391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3966,142 +4401,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA039E8C-4C5C-4B94-B35E-39014D3BC72C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.140625" style="59" customWidth="1"/>
+    <col min="1" max="1" width="105.140625" style="57" customWidth="1"/>
     <col min="2" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>195</v>
+      <c r="A1" s="55" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>198</v>
+      <c r="A2" s="56" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>197</v>
+      <c r="A3" s="56" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>199</v>
+      <c r="A4" s="56" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>200</v>
+      <c r="A5" s="56" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>206</v>
+      <c r="A6" s="56" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A7" s="56" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>196</v>
+      <c r="A9" s="55" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>209</v>
+      <c r="A10" s="57" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>207</v>
+      <c r="A11" s="57" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>210</v>
+      <c r="A12" s="57" t="s">
+        <v>191</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="131" priority="22">
+    <cfRule type="expression" dxfId="193" priority="22">
       <formula>IF($I12=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="23">
+    <cfRule type="expression" dxfId="192" priority="23">
       <formula>IF($H12=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="24">
+    <cfRule type="expression" dxfId="191" priority="24">
       <formula>IF($J12=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="128" priority="19">
+    <cfRule type="expression" dxfId="190" priority="19">
       <formula>IF($J12=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="20">
+    <cfRule type="expression" dxfId="189" priority="20">
       <formula>IF($I12=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="21">
+    <cfRule type="expression" dxfId="188" priority="21">
       <formula>IF($H12=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="116" priority="7">
+  <conditionalFormatting sqref="D12:F12">
+    <cfRule type="expression" dxfId="187" priority="1">
       <formula>IF($I12=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="8">
+    <cfRule type="expression" dxfId="186" priority="2">
       <formula>IF($H12=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="9">
-      <formula>IF($J12=1,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="113" priority="4">
-      <formula>IF($I12=1,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="5">
-      <formula>IF($H12=1,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="6">
-      <formula>IF($J12=1,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="110" priority="1">
-      <formula>IF($I12=1,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="2">
-      <formula>IF($H12=1,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="3">
+    <cfRule type="expression" dxfId="185" priority="3">
       <formula>IF($J12=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4116,13 +4526,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4156,13 +4566,13 @@
       <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43">
+      <c r="I1" s="42">
         <v>2023</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>8</v>
       </c>
       <c r="Z1" s="3">
@@ -4188,26 +4598,26 @@
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="47">
-        <f>(SUM(H3:H11))/9</f>
-        <v>3</v>
-      </c>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="46">
+        <f>(SUM(H3:H12))/9</f>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47">
-        <f>(SUM(I3:I11))/9</f>
-        <v>4.2222222222222223</v>
-      </c>
-      <c r="F2" s="46" t="s">
+      <c r="E2" s="46">
+        <f>(SUM(I3:I12))/9</f>
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="55">
-        <f>SUM(H3:H11,H13:H15,H17:H27,H29:H32)/27</f>
-        <v>2.2962962962962963</v>
+      <c r="G2" s="54">
+        <f>SUM(H3:H12,H14:H16,H18:H28,H30:H33)/27</f>
+        <v>2.4444444444444446</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>13</v>
@@ -4225,21 +4635,21 @@
         <v>14</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="45">
+        <v>200</v>
+      </c>
+      <c r="H3" s="44">
         <v>3</v>
       </c>
       <c r="I3" s="39">
@@ -4250,24 +4660,24 @@
     <row r="4" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="45">
+        <v>218</v>
+      </c>
+      <c r="H4" s="44">
         <v>3</v>
       </c>
       <c r="I4" s="39">
@@ -4278,24 +4688,24 @@
     <row r="5" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="45">
+      <c r="H5" s="44">
         <v>3</v>
       </c>
       <c r="I5" s="39">
@@ -4306,54 +4716,54 @@
     <row r="6" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>3</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="42">
         <v>4</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>4</v>
       </c>
       <c r="I7" s="37">
@@ -4364,24 +4774,24 @@
     <row r="8" spans="1:31" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="45">
+      <c r="H8" s="44">
         <v>2</v>
       </c>
       <c r="I8" s="39">
@@ -4392,24 +4802,24 @@
     <row r="9" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="45">
+      <c r="H9" s="44">
         <v>3</v>
       </c>
       <c r="I9" s="39">
@@ -4417,412 +4827,412 @@
       </c>
       <c r="J9" s="37"/>
     </row>
-    <row r="10" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="44">
+        <v>4</v>
+      </c>
+      <c r="I10" s="39">
+        <v>5</v>
+      </c>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="H11" s="44">
+        <v>4</v>
+      </c>
+      <c r="I11" s="37">
+        <v>4</v>
+      </c>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="C12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="H12" s="44">
+        <v>2</v>
+      </c>
+      <c r="I12" s="39">
+        <v>4</v>
+      </c>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="45">
-        <v>4</v>
-      </c>
-      <c r="I10" s="37">
-        <v>4</v>
-      </c>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:31" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="45">
-        <v>2</v>
-      </c>
-      <c r="I11" s="39">
-        <v>4</v>
-      </c>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="54">
-        <f>(SUM(H13:H15))/3</f>
+      <c r="C13" s="53">
+        <f>(SUM(H14:H16))/3</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="54">
-        <f>(SUM(I13:I15))/3</f>
+      <c r="E13" s="53">
+        <f>(SUM(I14:I16))/3</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="45">
-        <v>3</v>
-      </c>
-      <c r="I13" s="39">
-        <v>3</v>
-      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>78</v>
+        <v>222</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="45">
+        <v>66</v>
+      </c>
+      <c r="H14" s="44">
         <v>3</v>
       </c>
       <c r="I14" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:31" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="44">
+        <v>3</v>
+      </c>
+      <c r="I15" s="39">
+        <v>4</v>
+      </c>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:31" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="44">
+        <v>2</v>
+      </c>
+      <c r="I16" s="42">
+        <v>3</v>
+      </c>
+      <c r="J16" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="51">
+        <f>(SUM(H18:H28))/11</f>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="51">
+        <f>(SUM(I18:I28))/11</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" ht="135.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D18" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="45">
+      <c r="G18" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" s="44">
         <v>2</v>
       </c>
-      <c r="I15" s="43">
-        <v>3</v>
-      </c>
-      <c r="J15" s="44">
+      <c r="I18" s="42">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="52">
-        <f>(SUM(H17:H27))/11</f>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="52">
-        <f>(SUM(I17:I27))/11</f>
-        <v>3</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-    </row>
-    <row r="17" spans="1:10" ht="135.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="45">
-        <v>2</v>
-      </c>
-      <c r="I17" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="45">
-        <v>1</v>
-      </c>
-      <c r="I18" s="39">
-        <v>3</v>
-      </c>
-      <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>102</v>
+        <v>228</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="45">
+        <v>230</v>
+      </c>
+      <c r="H19" s="44">
+        <v>1</v>
+      </c>
+      <c r="I19" s="39">
         <v>3</v>
       </c>
-      <c r="I19" s="43">
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="44">
+        <v>3</v>
+      </c>
+      <c r="I20" s="42">
         <v>4</v>
-      </c>
-      <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="45">
-        <v>2</v>
-      </c>
-      <c r="I20" s="39">
-        <v>3</v>
       </c>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="45">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="H21" s="44">
+        <v>2</v>
       </c>
       <c r="I21" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" spans="1:10" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="45">
+        <v>211</v>
+      </c>
+      <c r="H22" s="44">
         <v>1</v>
       </c>
       <c r="I22" s="39">
+        <v>2</v>
+      </c>
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="44">
         <v>1</v>
       </c>
-      <c r="J22" s="37"/>
-    </row>
-    <row r="23" spans="1:10" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="45">
-        <v>2</v>
-      </c>
       <c r="I23" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" spans="1:10" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="15" t="s">
-        <v>129</v>
+    <row r="24" spans="1:10" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="45">
+        <v>112</v>
+      </c>
+      <c r="H24" s="44">
         <v>2</v>
       </c>
       <c r="I24" s="39">
@@ -4830,224 +5240,222 @@
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" spans="1:10" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="30" t="s">
-        <v>135</v>
+    <row r="25" spans="1:10" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="45">
+        <v>117</v>
+      </c>
+      <c r="H25" s="44">
         <v>2</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="39">
         <v>3</v>
       </c>
-      <c r="J25" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:10" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="30" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="45">
-        <v>1</v>
-      </c>
-      <c r="I26" s="39">
+        <v>236</v>
+      </c>
+      <c r="H26" s="44">
+        <v>2</v>
+      </c>
+      <c r="I26" s="42">
         <v>3</v>
       </c>
-      <c r="J26" s="37"/>
-    </row>
-    <row r="27" spans="1:10" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="30" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="45">
+        <v>240</v>
+      </c>
+      <c r="H27" s="44">
+        <v>1</v>
+      </c>
+      <c r="I27" s="39">
         <v>3</v>
       </c>
-      <c r="I27" s="39">
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:10" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H28" s="44">
+        <v>3</v>
+      </c>
+      <c r="I28" s="39">
         <v>4</v>
       </c>
-      <c r="J27" s="37"/>
-    </row>
-    <row r="28" spans="1:10" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="48" t="s">
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="49">
-        <f>(SUM(H29:H32))/4</f>
+      <c r="C29" s="48">
+        <f>(SUM(H30:H33))/4</f>
         <v>1.75</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D29" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="49">
-        <f>(SUM(I29:I32))/4</f>
+      <c r="E29" s="48">
+        <f>(SUM(I30:I33))/4</f>
         <v>3</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-    </row>
-    <row r="29" spans="1:10" ht="116.45" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="45">
-        <v>2</v>
-      </c>
-      <c r="I29" s="37">
-        <v>2</v>
-      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="37"/>
     </row>
-    <row r="30" spans="1:10" ht="116.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="116.45" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="15" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="45">
+        <v>142</v>
+      </c>
+      <c r="H30" s="44">
         <v>2</v>
       </c>
-      <c r="I30" s="39">
-        <v>4</v>
+      <c r="I30" s="37">
+        <v>2</v>
       </c>
       <c r="J30" s="37"/>
     </row>
-    <row r="31" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="116.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" s="45">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="H31" s="44">
+        <v>2</v>
       </c>
       <c r="I31" s="39">
-        <v>3</v>
-      </c>
-      <c r="J31" s="40">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="45">
-        <v>2</v>
+        <v>154</v>
+      </c>
+      <c r="H32" s="44">
+        <v>1</v>
       </c>
       <c r="I32" s="39">
         <v>3</v>
@@ -5056,74 +5464,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="AE33" s="43"/>
+      <c r="B33" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" s="44">
+        <v>2</v>
+      </c>
+      <c r="I33" s="39">
+        <v>3</v>
+      </c>
+      <c r="J33" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="AE34" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J32" xr:uid="{2703303B-EC9D-4F57-AED9-BC0A8B45182B}"/>
-  <conditionalFormatting sqref="B3:B11 B13:B15 B17:B27 B29:B32">
-    <cfRule type="expression" dxfId="107" priority="16">
+  <autoFilter ref="A1:J33" xr:uid="{2703303B-EC9D-4F57-AED9-BC0A8B45182B}"/>
+  <conditionalFormatting sqref="B14:B16 B18:B28 B30:B33 B3:B12">
+    <cfRule type="expression" dxfId="184" priority="17">
       <formula>IF($H3=0, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11 C13:C15 C17:C27 C29:C32">
-    <cfRule type="expression" dxfId="106" priority="13">
+  <conditionalFormatting sqref="C14:C16 C18:C28 C30:C33 C3:C12">
+    <cfRule type="expression" dxfId="183" priority="14">
       <formula>IF($I3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="14">
+    <cfRule type="expression" dxfId="182" priority="15">
       <formula>IF($H3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="15">
+    <cfRule type="expression" dxfId="181" priority="16">
       <formula>IF($J3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11 D13:D15 D17:D27 D29:D32">
-    <cfRule type="expression" dxfId="103" priority="10">
+  <conditionalFormatting sqref="D14:D16 D18:D28 D30:D33 D3:D12">
+    <cfRule type="expression" dxfId="180" priority="11">
       <formula>IF($J3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="11">
+    <cfRule type="expression" dxfId="179" priority="12">
       <formula>IF($I3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="12">
+    <cfRule type="expression" dxfId="178" priority="13">
       <formula>IF($H3=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E15 E17:E27 E29:E32">
-    <cfRule type="expression" dxfId="100" priority="7">
+  <conditionalFormatting sqref="E14:E16 E18:E28 E30:E33 E3:E12">
+    <cfRule type="expression" dxfId="177" priority="8">
       <formula>IF($J3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="8">
+    <cfRule type="expression" dxfId="176" priority="9">
       <formula>IF($I3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="9">
+    <cfRule type="expression" dxfId="175" priority="10">
       <formula>IF($H3=3,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11 F13:F15 F17:F27 F29:F32">
-    <cfRule type="expression" dxfId="97" priority="4">
+  <conditionalFormatting sqref="F14:F16 F18:F28 F30:F33 F3:F12">
+    <cfRule type="expression" dxfId="174" priority="5">
       <formula>IF($J3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="5">
+    <cfRule type="expression" dxfId="173" priority="6">
       <formula>IF($I3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="6">
+    <cfRule type="expression" dxfId="172" priority="7">
       <formula>IF($H3=4,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G11 G13:G15 G17:G27 G29:G32">
-    <cfRule type="expression" dxfId="94" priority="1">
+  <conditionalFormatting sqref="G14:G16 G18:G28 G30:G33 G3:G12">
+    <cfRule type="expression" dxfId="171" priority="2">
       <formula>IF($J3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="2">
+    <cfRule type="expression" dxfId="170" priority="3">
       <formula>IF($I3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="3">
+    <cfRule type="expression" dxfId="169" priority="4">
       <formula>IF($H3=5,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K15" xr:uid="{6EBA7FD8-312B-4169-ADAD-B869B07539DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K16" xr:uid="{6EBA7FD8-312B-4169-ADAD-B869B07539DD}">
       <formula1>$Z$1:$AE$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -5137,13 +5575,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -5177,13 +5615,13 @@
       <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="43" t="s">
         <v>8</v>
       </c>
       <c r="Z1" s="3">
@@ -5209,25 +5647,25 @@
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="47" t="e">
-        <f>(SUM(H3:H11))/9</f>
+      <c r="C2" s="46" t="e">
+        <f>(SUM(H3:H12))/9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="47" t="e">
-        <f>(SUM(I3:I11))/9</f>
+      <c r="E2" s="46" t="e">
+        <f>(SUM(I3:I12))/9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="55" t="e">
-        <f>SUM(H3:H11,H13:H15,H17:H27,H29:H32)/27</f>
+      <c r="G2" s="54" t="e">
+        <f>SUM(H3:H12,H14:H16,H18:H28,H30:H33)/27</f>
         <v>#VALUE!</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -5252,13 +5690,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="H3" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H3, 'User 4'!H3, 'User 3'!H3, 'User 1'!H3),"No Consensus")</f>
@@ -5276,22 +5714,22 @@
     <row r="4" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H4, 'User 4'!H4, 'User 3'!H4, 'User 1'!H4),"No Consensus")</f>
@@ -5309,22 +5747,22 @@
     <row r="5" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="H5" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H5, 'User 4'!H5, 'User 3'!H5, 'User 1'!H5),"No Consensus")</f>
@@ -5342,22 +5780,22 @@
     <row r="6" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="H6" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H6, 'User 4'!H6, 'User 3'!H6, 'User 1'!H6),"No Consensus")</f>
@@ -5375,22 +5813,22 @@
     <row r="7" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H7, 'User 4'!H7, 'User 3'!H7, 'User 1'!H7),"No Consensus")</f>
@@ -5408,22 +5846,22 @@
     <row r="8" spans="1:31" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H8, 'User 4'!H8, 'User 3'!H8, 'User 1'!H8),"No Consensus")</f>
@@ -5441,22 +5879,22 @@
     <row r="9" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H9, 'User 4'!H9, 'User 3'!H9, 'User 1'!H9),"No Consensus")</f>
@@ -5471,25 +5909,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>57</v>
+      <c r="B10" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>61</v>
+        <v>195</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="H10" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H10, 'User 4'!H10, 'User 3'!H10, 'User 1'!H10),"No Consensus")</f>
@@ -5504,25 +5942,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="60.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>65</v>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H11" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H11, 'User 4'!H11, 'User 3'!H11, 'User 1'!H11),"No Consensus")</f>
@@ -5537,79 +5975,79 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="53" t="s">
+    <row r="12" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!H12, 'User 4'!H12, 'User 3'!H12, 'User 1'!H12),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!I12, 'User 4'!I12, 'User 3'!I12, 'User 1'!I12),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!J12, 'User 4'!J12, 'User 3'!J12, 'User 1'!J12),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="54" t="e">
-        <f>(SUM(H13:H15))/3</f>
+      <c r="C13" s="53" t="e">
+        <f>(SUM(H14:H16))/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="54" t="e">
-        <f>(SUM(I13:I15))/3</f>
+      <c r="E13" s="53" t="e">
+        <f>(SUM(I14:I16))/3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!H13, 'User 4'!H13, 'User 3'!H13, 'User 1'!H13),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!I13, 'User 4'!I13, 'User 3'!I13, 'User 1'!I13),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!J13, 'User 4'!J13, 'User 3'!J13, 'User 1'!J13),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H14" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H14, 'User 4'!H14, 'User 3'!H14, 'User 1'!H14),"No Consensus")</f>
@@ -5624,25 +6062,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="H15" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H15, 'User 4'!H15, 'User 3'!H15, 'User 1'!H15),"No Consensus")</f>
@@ -5657,79 +6095,79 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="50" t="s">
+    <row r="16" spans="1:31" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!H16, 'User 4'!H16, 'User 3'!H16, 'User 1'!H16),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!I16, 'User 4'!I16, 'User 3'!I16, 'User 1'!I16),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J16" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!J16, 'User 4'!J16, 'User 3'!J16, 'User 1'!J16),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="52" t="e">
-        <f>(SUM(H17:H27))/11</f>
+      <c r="C17" s="51" t="e">
+        <f>(SUM(H18:H28))/11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="52" t="e">
-        <f>(SUM(I17:I27))/11</f>
+      <c r="E17" s="51" t="e">
+        <f>(SUM(I18:I28))/11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" ht="135.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!H17, 'User 4'!H17, 'User 3'!H17, 'User 1'!H17),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!I17, 'User 4'!I17, 'User 3'!I17, 'User 1'!I17),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!J17, 'User 4'!J17, 'User 3'!J17, 'User 1'!J17),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="135.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
-        <v>93</v>
+      <c r="B18" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>96</v>
+        <v>174</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H18" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H18, 'User 4'!H18, 'User 3'!H18, 'User 1'!H18),"No Consensus")</f>
@@ -5744,25 +6182,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H19" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H19, 'User 4'!H19, 'User 3'!H19, 'User 1'!H19),"No Consensus")</f>
@@ -5777,25 +6215,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="15" t="s">
-        <v>105</v>
+      <c r="B20" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H20" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H20, 'User 4'!H20, 'User 3'!H20, 'User 1'!H20),"No Consensus")</f>
@@ -5813,22 +6251,22 @@
     <row r="21" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H21" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H21, 'User 4'!H21, 'User 3'!H21, 'User 1'!H21),"No Consensus")</f>
@@ -5843,25 +6281,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="H22" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H22, 'User 4'!H22, 'User 3'!H22, 'User 1'!H22),"No Consensus")</f>
@@ -5876,25 +6314,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="21" t="s">
-        <v>123</v>
+      <c r="B23" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H23" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H23, 'User 4'!H23, 'User 3'!H23, 'User 1'!H23),"No Consensus")</f>
@@ -5909,25 +6347,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="15" t="s">
-        <v>129</v>
+    <row r="24" spans="1:10" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H24" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H24, 'User 4'!H24, 'User 3'!H24, 'User 1'!H24),"No Consensus")</f>
@@ -5942,25 +6380,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="30" t="s">
-        <v>135</v>
+    <row r="25" spans="1:10" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>139</v>
+        <v>116</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>213</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H25" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H25, 'User 4'!H25, 'User 3'!H25, 'User 1'!H25),"No Consensus")</f>
@@ -5975,25 +6413,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="30" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="H26" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H26, 'User 4'!H26, 'User 3'!H26, 'User 1'!H26),"No Consensus")</f>
@@ -6008,25 +6446,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="30" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H27" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H27, 'User 4'!H27, 'User 3'!H27, 'User 1'!H27),"No Consensus")</f>
@@ -6041,79 +6479,79 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="48" t="s">
+    <row r="28" spans="1:10" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!H28, 'User 4'!H28, 'User 3'!H28, 'User 1'!H28),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!I28, 'User 4'!I28, 'User 3'!I28, 'User 1'!I28),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J28" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!J28, 'User 4'!J28, 'User 3'!J28, 'User 1'!J28),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="49" t="e">
-        <f>(SUM(H29:H32))/4</f>
+      <c r="C29" s="48" t="e">
+        <f>(SUM(H30:H33))/4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D29" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="49" t="e">
-        <f>(SUM(I29:I32))/4</f>
+      <c r="E29" s="48" t="e">
+        <f>(SUM(I30:I33))/4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:10" ht="116.45" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H29" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!H29, 'User 4'!H29, 'User 3'!H29, 'User 1'!H29),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!I29, 'User 4'!I29, 'User 3'!I29, 'User 1'!I29),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="22" t="e">
-        <f>_xlfn.IFNA(MODE('User 2'!J29, 'User 4'!J29, 'User 3'!J29, 'User 1'!J29),"No Consensus")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="116.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:10" ht="116.45" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="15" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H30" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H30, 'User 4'!H30, 'User 3'!H30, 'User 1'!H30),"No Consensus")</f>
@@ -6128,25 +6566,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="116.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="H31" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H31, 'User 4'!H31, 'User 3'!H31, 'User 1'!H31),"No Consensus")</f>
@@ -6161,25 +6599,25 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="H32" s="22" t="e">
         <f>_xlfn.IFNA(MODE('User 2'!H32, 'User 4'!H32, 'User 3'!H32, 'User 1'!H32),"No Consensus")</f>
@@ -6194,72 +6632,65 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
+      <c r="B33" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!H33, 'User 4'!H33, 'User 3'!H33, 'User 1'!H33),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!I33, 'User 4'!I33, 'User 3'!I33, 'User 1'!I33),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="22" t="e">
+        <f>_xlfn.IFNA(MODE('User 2'!J33, 'User 4'!J33, 'User 3'!J33, 'User 1'!J33),"No Consensus")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B11 B13:B15 B17:B27 B29:B32">
-    <cfRule type="expression" dxfId="91" priority="16">
-      <formula>IF($H3=0, TRUE, FALSE)</formula>
+  <conditionalFormatting sqref="B3:G9 B10 D10:G10 B11:G12">
+    <cfRule type="expression" dxfId="68" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11 C13:C15 C17:C27 C29:C32">
-    <cfRule type="expression" dxfId="90" priority="13">
-      <formula>IF($I3=1,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="14">
-      <formula>IF($H3=1,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="15">
-      <formula>IF($J3=1,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="B14:G16">
+    <cfRule type="expression" dxfId="67" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11 D13:D15 D17:D27 D29:D32">
-    <cfRule type="expression" dxfId="87" priority="10">
-      <formula>IF($J3=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="11">
-      <formula>IF($I3=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="12">
-      <formula>IF($H3=2,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="B18:G28">
+    <cfRule type="expression" dxfId="66" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E15 E17:E27 E29:E32">
-    <cfRule type="expression" dxfId="84" priority="7">
-      <formula>IF($J3=3,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="8">
-      <formula>IF($I3=3,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="9">
-      <formula>IF($H3=3,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11 F13:F15 F17:F27 F29:F32">
-    <cfRule type="expression" dxfId="81" priority="4">
-      <formula>IF($J3=4,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="5">
-      <formula>IF($I3=4,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="6">
-      <formula>IF($H3=4,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G11 G13:G15 G17:G27 G29:G32">
-    <cfRule type="expression" dxfId="78" priority="1">
-      <formula>IF($J3=5,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="2">
-      <formula>IF($I3=5,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="3">
-      <formula>IF($H3=5,TRUE,FALSE)</formula>
+  <conditionalFormatting sqref="B30:G33">
+    <cfRule type="expression" dxfId="65" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K15" xr:uid="{535C65AA-CF11-4793-861B-CA63610336CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K16" xr:uid="{535C65AA-CF11-4793-861B-CA63610336CC}">
       <formula1>$Z$1:$AE$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -6270,10 +6701,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6B2A5A-9332-47C3-AC66-7814BB9D025F}">
-  <dimension ref="A1:AE33"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:J32"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6310,8 +6744,8 @@
       <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>194</v>
+      <c r="I1" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>8</v>
@@ -6338,7 +6772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -6349,687 +6783,708 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:31" ht="105.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="105.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:31" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23" t="s">
+    </row>
+    <row r="12" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="C12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22" t="s">
+    </row>
+    <row r="13" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:31" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>78</v>
+        <v>222</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="135.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D18" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="135.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="120" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>97</v>
-      </c>
       <c r="G18" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>102</v>
+        <v>228</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="15" t="s">
-        <v>105</v>
+      <c r="B20" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="135" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="105" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="30" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="30" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="15" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
+      <c r="B33" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B11 B13:B15 B17:B27 B29:B32">
-    <cfRule type="expression" dxfId="75" priority="19">
+  <conditionalFormatting sqref="B14:B16 B18:B28 B30:B33 B3:B12">
+    <cfRule type="expression" dxfId="151" priority="20">
       <formula>IF($H3=0, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11 C13:C15 C17:C27 C29:C32">
-    <cfRule type="expression" dxfId="74" priority="16">
+  <conditionalFormatting sqref="C14:C16 C18:C28 C30:C33 C3:C12">
+    <cfRule type="expression" dxfId="150" priority="17">
       <formula>IF($I3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="17">
+    <cfRule type="expression" dxfId="149" priority="18">
       <formula>IF($H3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="18">
+    <cfRule type="expression" dxfId="148" priority="19">
       <formula>IF($J3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11 D13:D14 D17:D27 D29:D32">
-    <cfRule type="expression" dxfId="71" priority="13">
+  <conditionalFormatting sqref="D18:D28 D30:D33 D3:D12">
+    <cfRule type="expression" dxfId="147" priority="14">
       <formula>IF($J3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="14">
+    <cfRule type="expression" dxfId="146" priority="15">
       <formula>IF($I3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="15">
+    <cfRule type="expression" dxfId="145" priority="16">
       <formula>IF($H3=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E15 E17:E27 E29:E32">
-    <cfRule type="expression" dxfId="68" priority="10">
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="expression" dxfId="144" priority="2">
+      <formula>IF($J14=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="3">
+      <formula>IF($I14=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="4">
+      <formula>IF($H14=2,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16 E18:E28 E30:E33 E3:E12">
+    <cfRule type="expression" dxfId="141" priority="11">
       <formula>IF($J3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="11">
+    <cfRule type="expression" dxfId="140" priority="12">
       <formula>IF($I3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="12">
+    <cfRule type="expression" dxfId="139" priority="13">
       <formula>IF($H3=3,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11 F13:F15 F17:F27 F29:F32">
-    <cfRule type="expression" dxfId="65" priority="7">
+  <conditionalFormatting sqref="F14:F16 F18:F28 F30:F33 F3:F12">
+    <cfRule type="expression" dxfId="138" priority="8">
       <formula>IF($J3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="8">
+    <cfRule type="expression" dxfId="137" priority="9">
       <formula>IF($I3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="9">
+    <cfRule type="expression" dxfId="136" priority="10">
       <formula>IF($H3=4,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G11 G13:G15 G17:G27 G29:G32">
-    <cfRule type="expression" dxfId="62" priority="4">
+  <conditionalFormatting sqref="G14:G16 G18:G28 G30:G33 G3:G12">
+    <cfRule type="expression" dxfId="135" priority="5">
       <formula>IF($J3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="5">
+    <cfRule type="expression" dxfId="134" priority="6">
       <formula>IF($I3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="6">
+    <cfRule type="expression" dxfId="133" priority="7">
       <formula>IF($H3=5,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="59" priority="1">
-      <formula>IF($J15=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2">
-      <formula>IF($I15=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="3">
-      <formula>IF($H15=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K15" xr:uid="{6DF5551C-076B-4364-8C5A-3A5370AC81D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K16" xr:uid="{6DF5551C-076B-4364-8C5A-3A5370AC81D4}">
       <formula1>$Z$1:$AE$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J11 H13:J15 H17:J27 H29:J32" xr:uid="{7005E3C3-2EF4-4416-B962-77F1378D3713}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J12 H14:J16 H18:J28 H30:J33" xr:uid="{7005E3C3-2EF4-4416-B962-77F1378D3713}">
       <formula1>$Y$1:$AE$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -7040,10 +7495,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40229A6B-73F7-4B73-8286-76EA3A91A8B7}">
-  <dimension ref="A1:AE33"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7080,8 +7538,8 @@
       <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>194</v>
+      <c r="I1" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>8</v>
@@ -7108,7 +7566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -7119,687 +7577,708 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:31" ht="105.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="105.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:31" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23" t="s">
+    </row>
+    <row r="12" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="C12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22" t="s">
+    </row>
+    <row r="13" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:31" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>78</v>
+        <v>222</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="135.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D18" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="135.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="120" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>97</v>
-      </c>
       <c r="G18" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>102</v>
+        <v>228</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="15" t="s">
-        <v>105</v>
+      <c r="B20" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="135" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="105" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="30" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="30" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="15" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
+      <c r="B33" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B11 B13:B15 B17:B27 B29:B32">
-    <cfRule type="expression" dxfId="56" priority="19">
+  <conditionalFormatting sqref="B14:B16 B18:B28 B30:B33 B3:B12">
+    <cfRule type="expression" dxfId="60" priority="19">
       <formula>IF($H3=0, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11 C13:C15 C17:C27 C29:C32">
-    <cfRule type="expression" dxfId="55" priority="16">
+  <conditionalFormatting sqref="C14:C16 C18:C28 C30:C33 C3:C12">
+    <cfRule type="expression" dxfId="59" priority="16">
       <formula>IF($I3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="17">
+    <cfRule type="expression" dxfId="58" priority="17">
       <formula>IF($H3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="18">
+    <cfRule type="expression" dxfId="57" priority="18">
       <formula>IF($J3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11 D13:D14 D17:D27 D29:D32">
-    <cfRule type="expression" dxfId="52" priority="13">
+  <conditionalFormatting sqref="D18:D28 D30:D33 D3:D12">
+    <cfRule type="expression" dxfId="56" priority="13">
       <formula>IF($J3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="14">
+    <cfRule type="expression" dxfId="55" priority="14">
       <formula>IF($I3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="15">
+    <cfRule type="expression" dxfId="54" priority="15">
       <formula>IF($H3=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E15 E17:E27 E29:E32">
-    <cfRule type="expression" dxfId="49" priority="10">
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="expression" dxfId="53" priority="1">
+      <formula>IF($J14=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="2">
+      <formula>IF($I14=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="3">
+      <formula>IF($H14=2,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16 E18:E28 E30:E33 E3:E12">
+    <cfRule type="expression" dxfId="50" priority="10">
       <formula>IF($J3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="11">
+    <cfRule type="expression" dxfId="49" priority="11">
       <formula>IF($I3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="48" priority="12">
       <formula>IF($H3=3,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11 F13:F15 F17:F27 F29:F32">
-    <cfRule type="expression" dxfId="46" priority="7">
+  <conditionalFormatting sqref="F14:F16 F18:F28 F30:F33 F3:F12">
+    <cfRule type="expression" dxfId="47" priority="7">
       <formula>IF($J3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>IF($I3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>IF($H3=4,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G11 G13:G15 G17:G27 G29:G32">
-    <cfRule type="expression" dxfId="43" priority="4">
+  <conditionalFormatting sqref="G14:G16 G18:G28 G30:G33 G3:G12">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>IF($J3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>IF($I3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>IF($H3=5,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="40" priority="1">
-      <formula>IF($J15=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="2">
-      <formula>IF($I15=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3">
-      <formula>IF($H15=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K15" xr:uid="{76266A60-F63B-436A-ACA3-E9AA05BCBC00}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K16" xr:uid="{ADBBCB7A-1090-4095-B853-DAA7643A320A}">
       <formula1>$Z$1:$AE$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J11 H13:J15 H17:J27 H29:J32" xr:uid="{E95E02D3-F8AB-4A77-AC45-D2A3E04458E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J12 H14:J16 H18:J28 H30:J33" xr:uid="{D0CE1A87-8E30-4625-9740-CC25FE26CFFC}">
       <formula1>$Y$1:$AE$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -7810,10 +8289,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48CEE30-EA34-4DD1-905C-892E222DE9EE}">
-  <dimension ref="A1:AE33"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7850,8 +8332,8 @@
       <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>194</v>
+      <c r="I1" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>8</v>
@@ -7878,7 +8360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -7889,688 +8371,708 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:31" ht="105.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="105.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:31" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23" t="s">
+    </row>
+    <row r="12" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="C12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22" t="s">
+    </row>
+    <row r="13" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:31" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>78</v>
+        <v>222</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="135.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D18" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="135.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="120" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>97</v>
-      </c>
       <c r="G18" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>102</v>
+        <v>228</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="15" t="s">
-        <v>105</v>
+      <c r="B20" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="135" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="105" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="30" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="30" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="15" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="AE33" s="43"/>
+      <c r="B33" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B11 B13:B15 B17:B27 B29:B32">
-    <cfRule type="expression" dxfId="37" priority="19">
+  <conditionalFormatting sqref="B14:B16 B18:B28 B30:B33 B3:B12">
+    <cfRule type="expression" dxfId="41" priority="19">
       <formula>IF($H3=0, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11 C13:C15 C17:C27 C29:C32">
-    <cfRule type="expression" dxfId="36" priority="16">
+  <conditionalFormatting sqref="C14:C16 C18:C28 C30:C33 C3:C12">
+    <cfRule type="expression" dxfId="40" priority="16">
       <formula>IF($I3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="39" priority="17">
       <formula>IF($H3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>IF($J3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11 D13:D14 D17:D27 D29:D32">
-    <cfRule type="expression" dxfId="33" priority="13">
+  <conditionalFormatting sqref="D18:D28 D30:D33 D3:D12">
+    <cfRule type="expression" dxfId="37" priority="13">
       <formula>IF($J3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="14">
+    <cfRule type="expression" dxfId="36" priority="14">
       <formula>IF($I3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>IF($H3=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E15 E17:E27 E29:E32">
-    <cfRule type="expression" dxfId="30" priority="10">
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="expression" dxfId="34" priority="1">
+      <formula>IF($J14=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="2">
+      <formula>IF($I14=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="3">
+      <formula>IF($H14=2,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16 E18:E28 E30:E33 E3:E12">
+    <cfRule type="expression" dxfId="31" priority="10">
       <formula>IF($J3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="30" priority="11">
       <formula>IF($I3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="29" priority="12">
       <formula>IF($H3=3,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11 F13:F15 F17:F27 F29:F32">
-    <cfRule type="expression" dxfId="27" priority="7">
+  <conditionalFormatting sqref="F14:F16 F18:F28 F30:F33 F3:F12">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF($J3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>IF($I3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>IF($H3=4,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G11 G13:G15 G17:G27 G29:G32">
-    <cfRule type="expression" dxfId="24" priority="4">
+  <conditionalFormatting sqref="G14:G16 G18:G28 G30:G33 G3:G12">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>IF($J3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>IF($I3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>IF($H3=5,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>IF($J15=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>IF($I15=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>IF($H15=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K15" xr:uid="{85378CC1-F5EC-43F0-BDAC-B65B24117229}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K16" xr:uid="{2B601873-5C4C-486A-AB95-0EAAFED94973}">
       <formula1>$Z$1:$AE$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J11 H13:J15 H17:J27 H29:J32" xr:uid="{9B41191A-E118-4E3F-9FC5-0DAF3DDD2D2C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J12 H14:J16 H18:J28 H30:J33" xr:uid="{765DC461-B8F7-4568-B401-3D1FDE6E8F36}">
       <formula1>$Y$1:$AE$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -8581,10 +9083,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E77C9B-3F52-4D98-9C9C-557B4D354CF2}">
-  <dimension ref="A1:AD33"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -8596,7 +9101,7 @@
     <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -8621,35 +9126,35 @@
       <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>194</v>
+      <c r="I1" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="3">
+      <c r="Y1" s="3">
         <v>-1</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Z1" s="3">
         <v>0</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="AA1" s="3">
         <v>1</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AB1" s="3">
         <v>2</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AC1" s="3">
         <v>3</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AD1" s="3">
         <v>4</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AE1" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -8660,685 +9165,709 @@
       <c r="F2" s="19"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:30" ht="105.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="105.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:30" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23" t="s">
+    </row>
+    <row r="12" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="C12" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="22" t="s">
+    </row>
+    <row r="13" spans="1:31" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:30" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="135" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:31" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>78</v>
+        <v>222</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="135.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D18" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="F18" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="135.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="120" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>97</v>
-      </c>
       <c r="G18" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>102</v>
+        <v>228</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="15" t="s">
-        <v>105</v>
+      <c r="B20" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="135" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="150" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="105" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="30" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="30" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7" ht="75.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="90.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" ht="75.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="15" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>169</v>
+        <v>145</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>173</v>
+        <v>149</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
+      <c r="B33" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B11 B13:B15 B17:B27 B29:B32">
-    <cfRule type="expression" dxfId="18" priority="19">
+  <conditionalFormatting sqref="B14:B16 B18:B28 B30:B33 B3:B12">
+    <cfRule type="expression" dxfId="22" priority="19">
       <formula>IF($H3=0, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11 C13:C15 C17:C27 C29:C32">
-    <cfRule type="expression" dxfId="17" priority="16">
+  <conditionalFormatting sqref="C14:C16 C18:C28 C30:C33 C3:C12">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>IF($I3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>IF($H3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>IF($J3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11 D13:D14 D17:D27 D29:D32">
-    <cfRule type="expression" dxfId="14" priority="13">
+  <conditionalFormatting sqref="D18:D28 D30:D33 D3:D12">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>IF($J3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>IF($I3=2,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>IF($H3=2,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E15 E17:E27 E29:E32">
-    <cfRule type="expression" dxfId="11" priority="10">
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>IF($J14=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>IF($I14=2,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>IF($H14=2,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16 E18:E28 E30:E33 E3:E12">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>IF($J3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>IF($I3=3,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>IF($H3=3,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F11 F13:F15 F17:F27 F29:F32">
-    <cfRule type="expression" dxfId="8" priority="7">
+  <conditionalFormatting sqref="F14:F16 F18:F28 F30:F33 F3:F12">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>IF($J3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>IF($I3=4,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>IF($H3=4,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G11 G13:G15 G17:G27 G29:G32">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="G14:G16 G18:G28 G30:G33 G3:G12">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>IF($J3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>IF($I3=5,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>IF($H3=5,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>IF($J15=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF($I15=2,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>IF($H15=2,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J11 H13:J15 H17:J27 H29:J32" xr:uid="{9C0C33EB-647B-484E-8520-D58929D9E09D}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J12 H14:J16 H18:J28 H30:J33" xr:uid="{AAEC5D86-4189-4B49-8FAB-FC8F2552ED50}">
       <formula1>$Y$1:$AE$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K16" xr:uid="{F83FFEEB-8D54-4225-AADF-10F42D1E16F5}">
+      <formula1>$Z$1:$AE$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9361,52 +9890,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="387" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -9670,6 +10199,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="01098293-a8f5-4a21-8849-ffdc1d6b180f" xsi:nil="true"/>
@@ -9687,15 +10225,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9719,6 +10248,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD6E807-3B22-4452-A62C-6AF1CB49F76E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2618A23-7192-4C37-970C-F0C1DE1142D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9728,12 +10265,4 @@
     <ds:schemaRef ds:uri="cdd62f4f-0f76-406d-bafb-c0159c105e45"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD6E807-3B22-4452-A62C-6AF1CB49F76E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>